--- a/Refinitiv/Analysis/MY/MY_Descriptive Statistics.xlsx
+++ b/Refinitiv/Analysis/MY/MY_Descriptive Statistics.xlsx
@@ -824,66 +824,6 @@
       <c r="D3" t="n">
         <v>331</v>
       </c>
-      <c r="G3" t="n">
-        <v>634</v>
-      </c>
-      <c r="H3" t="n">
-        <v>619</v>
-      </c>
-      <c r="I3" t="n">
-        <v>634</v>
-      </c>
-      <c r="J3" t="n">
-        <v>630</v>
-      </c>
-      <c r="K3" t="n">
-        <v>623</v>
-      </c>
-      <c r="L3" t="n">
-        <v>623</v>
-      </c>
-      <c r="M3" t="n">
-        <v>634</v>
-      </c>
-      <c r="N3" t="n">
-        <v>634</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1080</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1518</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1515</v>
-      </c>
-      <c r="R3" t="n">
-        <v>326</v>
-      </c>
-      <c r="S3" t="n">
-        <v>326</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1831</v>
-      </c>
-      <c r="U3" t="n">
-        <v>331</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1892</v>
-      </c>
-      <c r="W3" t="n">
-        <v>331</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1515</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1892</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1518</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -901,66 +841,6 @@
           <t>BUAB.KL</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>39.9142653203083</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>35.4247104247104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52.4043715846994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2124.623844623844</v>
-      </c>
-      <c r="N4" t="n">
-        <v>63589.35495952886</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.812160804</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.555555556</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.08345749552176</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.358676796892323</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.839490572</v>
-      </c>
-      <c r="U4" t="n">
-        <v>38.2517659140257</v>
-      </c>
-      <c r="V4" t="n">
-        <v>352611940.298507</v>
-      </c>
-      <c r="W4" t="n">
-        <v>33.0197980994772</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.1799999999856</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2.430736408</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5.239747122580646</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -974,66 +854,6 @@
       <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>12</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1050,9 +870,63 @@
       <c r="F6" t="n">
         <v>2019.416753381894</v>
       </c>
+      <c r="G6" t="n">
+        <v>47.04947321487399</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36.65452152153802</v>
+      </c>
+      <c r="I6" t="n">
+        <v>51.29760338579531</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50.86137493920096</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2237.825678954217</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2015.78642389924</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2781.261072589395</v>
+      </c>
+      <c r="N6" t="n">
+        <v>151185.0129286476</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.882929392896679</v>
+      </c>
+      <c r="P6" t="n">
+        <v>221.4736711023251</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>28.67589288437186</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.221019912769642</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.7893919278945938</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.068735332600547</v>
+      </c>
+      <c r="U6" t="n">
+        <v>37.32600118667948</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1158618760.272202</v>
+      </c>
+      <c r="W6" t="n">
+        <v>37.70113294315134</v>
+      </c>
       <c r="X6" t="n">
         <v>-0.03378628950578291</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.1791045396782302</v>
+      </c>
       <c r="Z6" t="n">
         <v>0.1744748861038983</v>
       </c>
@@ -1062,6 +936,9 @@
       <c r="AB6" t="n">
         <v>2.340391092753953e-18</v>
       </c>
+      <c r="AC6" t="n">
+        <v>35.30624285197852</v>
+      </c>
       <c r="AD6" t="n">
         <v>34.78747751943872</v>
       </c>
@@ -1071,6 +948,9 @@
       <c r="AF6" t="n">
         <v>-9.388778220931556e-18</v>
       </c>
+      <c r="AG6" t="n">
+        <v>306.7955671989235</v>
+      </c>
       <c r="AH6" t="n">
         <v>275.0462435488761</v>
       </c>
@@ -1111,9 +991,63 @@
       <c r="F7" t="n">
         <v>1.673379244318666</v>
       </c>
+      <c r="G7" t="n">
+        <v>18.1601539559753</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.84502287773762</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21.02170683863201</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.20635832269786</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1938.027249409436</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1751.787828013133</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1875.330867057288</v>
+      </c>
+      <c r="N7" t="n">
+        <v>148477.7993157351</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.734527958605121</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6927.875627478162</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>72.35422130088232</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7286885655475006</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5456071293440071</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9.323698036514696</v>
+      </c>
+      <c r="U7" t="n">
+        <v>21.75485270480808</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2882812342.31101</v>
+      </c>
+      <c r="W7" t="n">
+        <v>24.89441352224999</v>
+      </c>
       <c r="X7" t="n">
         <v>0.8764045480719648</v>
       </c>
+      <c r="Y7" t="n">
+        <v>3.579519170148852</v>
+      </c>
       <c r="Z7" t="n">
         <v>0.4546451681211204</v>
       </c>
@@ -1123,6 +1057,9 @@
       <c r="AB7" t="n">
         <v>0.9783415938338944</v>
       </c>
+      <c r="AC7" t="n">
+        <v>1337.121788481756</v>
+      </c>
       <c r="AD7" t="n">
         <v>232.6072376017333</v>
       </c>
@@ -1132,6 +1069,9 @@
       <c r="AF7" t="n">
         <v>0.9826630412123886</v>
       </c>
+      <c r="AG7" t="n">
+        <v>9900.813149134461</v>
+      </c>
       <c r="AH7" t="n">
         <v>1892.011422559532</v>
       </c>
@@ -1172,9 +1112,63 @@
       <c r="F8" t="n">
         <v>2017</v>
       </c>
+      <c r="G8" t="n">
+        <v>5.45525079259131</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.38395904436859</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.80598555211558</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29.11385274232588</v>
+      </c>
+      <c r="N8" t="n">
+        <v>162.3469609285522</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.196309744053503</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.007169704000657</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-2.37335245719635</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.231835716417949</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-46.7852118737</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9.590779098391289</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4423728.81355932</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.961593506751379</v>
+      </c>
       <c r="X8" t="n">
         <v>-6.143210918490472</v>
       </c>
+      <c r="Y8" t="n">
+        <v>0.0006846846846849068</v>
+      </c>
       <c r="Z8" t="n">
         <v>0.03522963466972475</v>
       </c>
@@ -1184,6 +1178,9 @@
       <c r="AB8" t="n">
         <v>-1.951642778875617</v>
       </c>
+      <c r="AC8" t="n">
+        <v>0.048628716485443</v>
+      </c>
       <c r="AD8" t="n">
         <v>0.8974664977954606</v>
       </c>
@@ -1193,6 +1190,9 @@
       <c r="AF8" t="n">
         <v>-1.500786787049124</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.1107983699353448</v>
+      </c>
       <c r="AH8" t="n">
         <v>2.946013095830286</v>
       </c>
@@ -1233,9 +1233,63 @@
       <c r="F9" t="n">
         <v>2018</v>
       </c>
+      <c r="G9" t="n">
+        <v>31.97572966389053</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.24649917737122</v>
+      </c>
+      <c r="I9" t="n">
+        <v>34.03823530509818</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.88807817580295</v>
+      </c>
+      <c r="K9" t="n">
+        <v>519.9884421999199</v>
+      </c>
+      <c r="L9" t="n">
+        <v>591.2424668176375</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1189.880043115714</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32693.4987829374</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.867736679452733</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>10.00650944243258</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.803580671269581</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.426565594452296</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.0540319915</v>
+      </c>
+      <c r="U9" t="n">
+        <v>23.8170023194615</v>
+      </c>
+      <c r="V9" t="n">
+        <v>84918180.47217181</v>
+      </c>
+      <c r="W9" t="n">
+        <v>23.063378380558</v>
+      </c>
       <c r="X9" t="n">
         <v>-0.3027876593239964</v>
       </c>
+      <c r="Y9" t="n">
+        <v>0.03783119916848355</v>
+      </c>
       <c r="Z9" t="n">
         <v>0.06635012868291394</v>
       </c>
@@ -1245,6 +1299,9 @@
       <c r="AB9" t="n">
         <v>-0.566118870821814</v>
       </c>
+      <c r="AC9" t="n">
+        <v>0.615206496</v>
+      </c>
       <c r="AD9" t="n">
         <v>1.595936788011365</v>
       </c>
@@ -1254,6 +1311,9 @@
       <c r="AF9" t="n">
         <v>-0.5633992470287608</v>
       </c>
+      <c r="AG9" t="n">
+        <v>3.546834268193857</v>
+      </c>
       <c r="AH9" t="n">
         <v>14.02767626775695</v>
       </c>
@@ -1294,9 +1354,63 @@
       <c r="F10" t="n">
         <v>2019</v>
       </c>
+      <c r="G10" t="n">
+        <v>47.096738630358</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34.0107282995287</v>
+      </c>
+      <c r="I10" t="n">
+        <v>53.0981788198579</v>
+      </c>
+      <c r="J10" t="n">
+        <v>51.40291339207745</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1845.638977786491</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1467.331118768128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2341.826300347025</v>
+      </c>
+      <c r="N10" t="n">
+        <v>104465.4086735491</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.697142391269981</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15.106813151</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.09679414795852</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.676093631735514</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.758692792</v>
+      </c>
+      <c r="U10" t="n">
+        <v>32.7991050880754</v>
+      </c>
+      <c r="V10" t="n">
+        <v>179871657.957079</v>
+      </c>
+      <c r="W10" t="n">
+        <v>31.65455160268605</v>
+      </c>
       <c r="X10" t="n">
         <v>-0.0483965408618501</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.06619530851054861</v>
+      </c>
       <c r="Z10" t="n">
         <v>0.08002596983776222</v>
       </c>
@@ -1306,6 +1420,9 @@
       <c r="AB10" t="n">
         <v>-0.2027255767147337</v>
       </c>
+      <c r="AC10" t="n">
+        <v>1.2935617725</v>
+      </c>
       <c r="AD10" t="n">
         <v>2.004413126403694</v>
       </c>
@@ -1315,6 +1432,9 @@
       <c r="AF10" t="n">
         <v>-0.2871896203889725</v>
       </c>
+      <c r="AG10" t="n">
+        <v>8.17129942893974</v>
+      </c>
       <c r="AH10" t="n">
         <v>22.96759820807451</v>
       </c>
@@ -1355,9 +1475,63 @@
       <c r="F11" t="n">
         <v>2021</v>
       </c>
+      <c r="G11" t="n">
+        <v>60.7081791426266</v>
+      </c>
+      <c r="H11" t="n">
+        <v>56.03985806408188</v>
+      </c>
+      <c r="I11" t="n">
+        <v>67.58796719799679</v>
+      </c>
+      <c r="J11" t="n">
+        <v>68.65201237478766</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3562.589637956335</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3044.774392097399</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4008.670927503015</v>
+      </c>
+      <c r="N11" t="n">
+        <v>223742.2252884099</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.260976597</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19.90659784617232</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>26.433341954</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57686094230327</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.058069735228585</v>
+      </c>
+      <c r="T11" t="n">
+        <v>8.55328689645</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44.1439925015829</v>
+      </c>
+      <c r="V11" t="n">
+        <v>704706269.1745907</v>
+      </c>
+      <c r="W11" t="n">
+        <v>43.3666275645425</v>
+      </c>
       <c r="X11" t="n">
         <v>0.1885332960879414</v>
       </c>
+      <c r="Y11" t="n">
+        <v>0.09993507462686579</v>
+      </c>
       <c r="Z11" t="n">
         <v>0.1040071172225451</v>
       </c>
@@ -1367,6 +1541,9 @@
       <c r="AB11" t="n">
         <v>0.2656644843256022</v>
       </c>
+      <c r="AC11" t="n">
+        <v>2.764510773803105</v>
+      </c>
       <c r="AD11" t="n">
         <v>3.257053362058293</v>
       </c>
@@ -1376,6 +1553,9 @@
       <c r="AF11" t="n">
         <v>0.1668936123774273</v>
       </c>
+      <c r="AG11" t="n">
+        <v>19.19298651717195</v>
+      </c>
       <c r="AH11" t="n">
         <v>37.30395639202472</v>
       </c>
@@ -1416,9 +1596,63 @@
       <c r="F12" t="n">
         <v>2022</v>
       </c>
+      <c r="G12" t="n">
+        <v>90.8127810177044</v>
+      </c>
+      <c r="H12" t="n">
+        <v>91.1906848126461</v>
+      </c>
+      <c r="I12" t="n">
+        <v>97.48458318188359</v>
+      </c>
+      <c r="J12" t="n">
+        <v>98.7431693989071</v>
+      </c>
+      <c r="K12" t="n">
+        <v>8889.461961586105</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7544.160584938694</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8170.701187797568</v>
+      </c>
+      <c r="N12" t="n">
+        <v>748929.4811692492</v>
+      </c>
+      <c r="O12" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>269091.608902911</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1460.526315789</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.35324488052067</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.48865892578156</v>
+      </c>
+      <c r="T12" t="n">
+        <v>84.6368217716</v>
+      </c>
+      <c r="U12" t="n">
+        <v>227.052991658391</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26130292711.2759</v>
+      </c>
+      <c r="W12" t="n">
+        <v>259.160835724776</v>
+      </c>
       <c r="X12" t="n">
         <v>5.953056055044132</v>
       </c>
+      <c r="Y12" t="n">
+        <v>139.4757719298264</v>
+      </c>
       <c r="Z12" t="n">
         <v>2.505302265225944</v>
       </c>
@@ -1428,6 +1662,9 @@
       <c r="AB12" t="n">
         <v>7.484370415578959</v>
       </c>
+      <c r="AC12" t="n">
+        <v>58102.297777778</v>
+      </c>
       <c r="AD12" t="n">
         <v>1819.878410648165</v>
       </c>
@@ -1436,6 +1673,9 @@
       </c>
       <c r="AF12" t="n">
         <v>7.957225987377835</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>384416.5841470158</v>
       </c>
       <c r="AH12" t="n">
         <v>16721.88509944118</v>
